--- a/testData/Practice.xlsx
+++ b/testData/Practice.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DINESH C\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{08052A42-1799-4B21-BEBA-B1449D03A38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" activeTab="5"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Org" sheetId="1" r:id="rId1"/>
@@ -20,6 +16,7 @@
     <sheet name="AmazonProduct" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:I8"/>
 </workbook>
 </file>
 
@@ -83,9 +80,6 @@
     <t>LastName</t>
   </si>
   <si>
-    <t>Dilip</t>
-  </si>
-  <si>
     <t>tc_04</t>
   </si>
   <si>
@@ -225,12 +219,15 @@
   </si>
   <si>
     <t>Apple iPhone 15 (128 GB) - Yellow</t>
+  </si>
+  <si>
+    <t>createContacttest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -242,6 +239,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,6 +247,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -555,7 +554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -671,14 +670,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -704,13 +703,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -732,13 +731,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -751,10 +750,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>3</v>
@@ -762,16 +761,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -781,7 +780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -808,7 +807,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -816,16 +815,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -840,10 +839,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -851,19 +850,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
@@ -880,7 +879,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>14</v>
@@ -891,19 +890,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -913,7 +912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -936,10 +935,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -947,13 +946,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -969,7 +968,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
@@ -978,16 +977,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="6"/>
@@ -1003,10 +1002,10 @@
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>3</v>
@@ -1014,19 +1013,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -1036,7 +1035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1063,7 +1062,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -1071,16 +1070,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>17</v>
@@ -1088,17 +1087,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1110,34 +1109,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
